--- a/APM files/136396347/136396347 IMPORT 1 BMC Cloud Property.xlsx
+++ b/APM files/136396347/136396347 IMPORT 1 BMC Cloud Property.xlsx
@@ -1,37 +1,419 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/136396347/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F61788-60DC-1843-984E-045F02C107BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="119">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Hotel Business Model</t>
+  </si>
+  <si>
+    <t>Target Hotel Business Model</t>
+  </si>
+  <si>
+    <t>Target Rate Acquisition Type</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>Oracle ID</t>
+  </si>
+  <si>
+    <t>Rates Inclusive of Taxes</t>
+  </si>
+  <si>
+    <t>Rates Inclusive of Fees</t>
+  </si>
+  <si>
+    <t>Commissions Charged for Taxes</t>
+  </si>
+  <si>
+    <t>Commissions Charged for Fees</t>
+  </si>
+  <si>
+    <t>Commissions Charged for Cancellations</t>
+  </si>
+  <si>
+    <t>Default Margin Percent</t>
+  </si>
+  <si>
+    <t>Target Business Model for Standalone</t>
+  </si>
+  <si>
+    <t>Target Business Model for Corporate</t>
+  </si>
+  <si>
+    <t>Target Business Model for Package</t>
+  </si>
+  <si>
+    <t>24179181</t>
+  </si>
+  <si>
+    <t>87997164</t>
+  </si>
+  <si>
+    <t>66732243</t>
+  </si>
+  <si>
+    <t>87997472</t>
+  </si>
+  <si>
+    <t>20017803</t>
+  </si>
+  <si>
+    <t>20016175</t>
+  </si>
+  <si>
+    <t>87997730</t>
+  </si>
+  <si>
+    <t>91641008</t>
+  </si>
+  <si>
+    <t>88053623</t>
+  </si>
+  <si>
+    <t>19851200</t>
+  </si>
+  <si>
+    <t>88053532</t>
+  </si>
+  <si>
+    <t>91122786</t>
+  </si>
+  <si>
+    <t>20006164</t>
+  </si>
+  <si>
+    <t>15472168</t>
+  </si>
+  <si>
+    <t>87924747</t>
+  </si>
+  <si>
+    <t>20022101</t>
+  </si>
+  <si>
+    <t>34538133</t>
+  </si>
+  <si>
+    <t>88053826</t>
+  </si>
+  <si>
+    <t>88193275</t>
+  </si>
+  <si>
+    <t>87723828</t>
+  </si>
+  <si>
+    <t>88643584</t>
+  </si>
+  <si>
+    <t>35313365</t>
+  </si>
+  <si>
+    <t>36298895</t>
+  </si>
+  <si>
+    <t>21194058</t>
+  </si>
+  <si>
+    <t>15472159</t>
+  </si>
+  <si>
+    <t>33106324</t>
+  </si>
+  <si>
+    <t>27053636</t>
+  </si>
+  <si>
+    <t>27397518</t>
+  </si>
+  <si>
+    <t>25023158</t>
+  </si>
+  <si>
+    <t>87699120</t>
+  </si>
+  <si>
+    <t>87683931</t>
+  </si>
+  <si>
+    <t>87682140</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>SellLAR</t>
+  </si>
+  <si>
+    <t>4529785</t>
+  </si>
+  <si>
+    <t>5196325</t>
+  </si>
+  <si>
+    <t>5071342</t>
+  </si>
+  <si>
+    <t>5196328</t>
+  </si>
+  <si>
+    <t>4529787</t>
+  </si>
+  <si>
+    <t>4526861</t>
+  </si>
+  <si>
+    <t>5196404</t>
+  </si>
+  <si>
+    <t>5252769</t>
+  </si>
+  <si>
+    <t>5196413</t>
+  </si>
+  <si>
+    <t>4528760</t>
+  </si>
+  <si>
+    <t>5196407</t>
+  </si>
+  <si>
+    <t>5245715</t>
+  </si>
+  <si>
+    <t>4528759</t>
+  </si>
+  <si>
+    <t>4525083</t>
+  </si>
+  <si>
+    <t>5196127</t>
+  </si>
+  <si>
+    <t>4528758</t>
+  </si>
+  <si>
+    <t>4686653</t>
+  </si>
+  <si>
+    <t>5196419</t>
+  </si>
+  <si>
+    <t>5197683</t>
+  </si>
+  <si>
+    <t>5193921</t>
+  </si>
+  <si>
+    <t>5201249</t>
+  </si>
+  <si>
+    <t>4707442</t>
+  </si>
+  <si>
+    <t>4745862</t>
+  </si>
+  <si>
+    <t>4530590</t>
+  </si>
+  <si>
+    <t>4526847</t>
+  </si>
+  <si>
+    <t>4657288</t>
+  </si>
+  <si>
+    <t>4549483</t>
+  </si>
+  <si>
+    <t>4559668</t>
+  </si>
+  <si>
+    <t>4609931</t>
+  </si>
+  <si>
+    <t>5193595</t>
+  </si>
+  <si>
+    <t>5193089</t>
+  </si>
+  <si>
+    <t>5193075</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2493559</t>
+  </si>
+  <si>
+    <t>2212566</t>
+  </si>
+  <si>
+    <t>2213509</t>
+  </si>
+  <si>
+    <t>2198166</t>
+  </si>
+  <si>
+    <t>2212463</t>
+  </si>
+  <si>
+    <t>1319608</t>
+  </si>
+  <si>
+    <t>2212943</t>
+  </si>
+  <si>
+    <t>2882986</t>
+  </si>
+  <si>
+    <t>2917897</t>
+  </si>
+  <si>
+    <t>2981005</t>
+  </si>
+  <si>
+    <t>2272699</t>
+  </si>
+  <si>
+    <t>1308664</t>
+  </si>
+  <si>
+    <t>2825735</t>
+  </si>
+  <si>
+    <t>2583578</t>
+  </si>
+  <si>
+    <t>2605773</t>
+  </si>
+  <si>
+    <t>2524690</t>
+  </si>
+  <si>
+    <t>5076398</t>
+  </si>
+  <si>
+    <t>5076399</t>
+  </si>
+  <si>
+    <t>5077173</t>
+  </si>
+  <si>
+    <t>5076400</t>
+  </si>
+  <si>
+    <t>5076401</t>
+  </si>
+  <si>
+    <t>5076402</t>
+  </si>
+  <si>
+    <t>5077174</t>
+  </si>
+  <si>
+    <t>5076403</t>
+  </si>
+  <si>
+    <t>5077175</t>
+  </si>
+  <si>
+    <t>5076404</t>
+  </si>
+  <si>
+    <t>5076405</t>
+  </si>
+  <si>
+    <t>5076406</t>
+  </si>
+  <si>
+    <t>5076407</t>
+  </si>
+  <si>
+    <t>5077176</t>
+  </si>
+  <si>
+    <t>5076408</t>
+  </si>
+  <si>
+    <t>5076409</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +428,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,120 +752,1681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel Business Model</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Target Hotel Business Model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Target Rate Acquisition Type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Vendor ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Oracle ID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Rates Inclusive of Taxes</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Rates Inclusive of Fees</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Commissions Charged for Taxes</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Commissions Charged for Fees</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Commissions Charged for Cancellations</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Default Margin Percent</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Target Business Model for Standalone</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Target Business Model for Corporate</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Target Business Model for Package</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>123</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>136396347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>136396347</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>136396347</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>136396347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>136396347</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>136396347</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>136396347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>136396347</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>136396347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>136396347</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>136396347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>136396347</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>136396347</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>136396347</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>136396347</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>136396347</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>136396347</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>136396347</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>136396347</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>136396347</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>136396347</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N22" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>136396347</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>136396347</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>136396347</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>136396347</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N26" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>136396347</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>136396347</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N28" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>136396347</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>136396347</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>136396347</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>136396347</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N32" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>136396347</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N33" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
